--- a/data/trans_bre/P40_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P40_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-12.07177347480973</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-9.377436408483419</v>
+        <v>-9.377436408483408</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.198397142880569</v>
@@ -649,7 +649,7 @@
         <v>-0.152276823023247</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.1392099351211661</v>
+        <v>-0.1392099351211659</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-18.66185229323345</v>
+        <v>-19.46157019358273</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-19.2585497326597</v>
+        <v>-19.22092461626917</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-15.55778992743031</v>
+        <v>-15.73538402702082</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-14.59163054169458</v>
+        <v>-15.19613119143481</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2510477013608252</v>
+        <v>-0.2595044112095296</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2370202943266588</v>
+        <v>-0.2349615668795122</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1931953363704668</v>
+        <v>-0.1966545126170945</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2083476762365784</v>
+        <v>-0.213571583116745</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-9.186789653082016</v>
+        <v>-8.636857666495759</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-11.37387646083144</v>
+        <v>-11.28484364757909</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-8.293202273770744</v>
+        <v>-8.410512181503984</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-3.317374198930325</v>
+        <v>-3.755515513900934</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.1323809105438218</v>
+        <v>-0.1251556913895727</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1457266179311907</v>
+        <v>-0.1460822990251298</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.1079735608750549</v>
+        <v>-0.1087891869441992</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.05173674871102583</v>
+        <v>-0.05828003034615813</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-9.257364030947057</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-11.8098881834891</v>
+        <v>-11.80988818348911</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1292304669252134</v>
@@ -749,7 +749,7 @@
         <v>-0.1073019133318319</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1472055243815073</v>
+        <v>-0.1472055243815074</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-14.30246664161168</v>
+        <v>-14.34257513159249</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-14.63251783770395</v>
+        <v>-14.49976019500492</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-12.97573413950155</v>
+        <v>-12.98292588663158</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-15.20876060000633</v>
+        <v>-15.29665173333623</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1666758200205592</v>
+        <v>-0.1668173352522951</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1725125965004592</v>
+        <v>-0.171833412641112</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1474736191510267</v>
+        <v>-0.1475622614609673</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1861781869977416</v>
+        <v>-0.1863661610836909</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-7.545399181914886</v>
+        <v>-7.717583860975317</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-7.071111822742422</v>
+        <v>-7.270855407488224</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-5.96427096626855</v>
+        <v>-5.66992235256963</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-8.422193414322093</v>
+        <v>-8.17039982576242</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.08996911576418508</v>
+        <v>-0.09213167276025867</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.08649221609699922</v>
+        <v>-0.0886000746146572</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.0705838791211255</v>
+        <v>-0.06837202569813192</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1078452555328567</v>
+        <v>-0.1045810587704604</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-6.786619263156024</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-5.971252698036045</v>
+        <v>-5.971252698036034</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.09343304130393436</v>
@@ -849,7 +849,7 @@
         <v>-0.07881693476691044</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.07124476583101835</v>
+        <v>-0.07124476583101821</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-11.44245773203815</v>
+        <v>-11.38616832229471</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-7.348703627246911</v>
+        <v>-7.479493434763087</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.62775384286713</v>
+        <v>-10.6111398732752</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-8.805254654729703</v>
+        <v>-9.067710679698559</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1293489308767082</v>
+        <v>-0.1276131958919176</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.08665115075645349</v>
+        <v>-0.08754569040861761</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1214304399315467</v>
+        <v>-0.1217583456998883</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1030286105056368</v>
+        <v>-0.1063514997730707</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-5.011537294852261</v>
+        <v>-5.014000349380565</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4632687930576956</v>
+        <v>0.6687587177531477</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.955061840599475</v>
+        <v>-3.122135067915327</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.839829996109096</v>
+        <v>-2.989394752118554</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.05788086100536292</v>
+        <v>-0.05723041444722606</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005835997376895405</v>
+        <v>0.00810131060612025</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.03552615902203631</v>
+        <v>-0.03734750894006514</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.0338790547742524</v>
+        <v>-0.03598769839672492</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-3.780046029344086</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-5.61543356052664</v>
+        <v>-5.615433560526628</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.09313304978434393</v>
@@ -949,7 +949,7 @@
         <v>-0.04340711948033336</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.06460914442869595</v>
+        <v>-0.06460914442869581</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-13.86681379472254</v>
+        <v>-13.72328151474348</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-11.26719800975778</v>
+        <v>-11.27520823255221</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-8.867909650617356</v>
+        <v>-8.378129090477476</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-9.077293276524346</v>
+        <v>-8.62354974274046</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1504912957436482</v>
+        <v>-0.1512950645755682</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1249974061603654</v>
+        <v>-0.1251447719203831</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1000108108365187</v>
+        <v>-0.09443818547405618</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1024540926742276</v>
+        <v>-0.096907602245313</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-3.73520302884336</v>
+        <v>-3.360619402699038</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.94632972010847</v>
+        <v>-1.811047832411461</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4745435306318767</v>
+        <v>1.223764063254794</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-2.641099360939918</v>
+        <v>-2.720000420172731</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.04235193376369914</v>
+        <v>-0.03875669603556579</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.02261270948862233</v>
+        <v>-0.02261264166453426</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.005533511514733378</v>
+        <v>0.01454898377879403</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.03107441880532548</v>
+        <v>-0.03198327501720448</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-9.126693058097191</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-8.841865715722008</v>
+        <v>-8.841865715721998</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1467106361544635</v>
@@ -1049,7 +1049,7 @@
         <v>-0.1086306737812063</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.1087071546557133</v>
+        <v>-0.1087071546557132</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-14.12666246604641</v>
+        <v>-14.43248092797632</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.97847835596329</v>
+        <v>-12.14008135348748</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.9345185112699</v>
+        <v>-11.12325608898777</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-10.65167814063721</v>
+        <v>-10.57173074656801</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1665987668882189</v>
+        <v>-0.1695215987416149</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1427527361731439</v>
+        <v>-0.1447890878364594</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1294337966414943</v>
+        <v>-0.130940310282463</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.1292136900593943</v>
+        <v>-0.1287178981835668</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-10.32454436418657</v>
+        <v>-10.17765822871292</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-7.752476207793027</v>
+        <v>-8.072307302563136</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-6.91443480025266</v>
+        <v>-7.004999947386577</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-6.992544112730712</v>
+        <v>-6.914478090857743</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.1237891562465548</v>
+        <v>-0.1223135096979785</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.09541295349121309</v>
+        <v>-0.0978861354583548</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.08345045495090998</v>
+        <v>-0.08414566958396073</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.08686950314103263</v>
+        <v>-0.08656313710164106</v>
       </c>
     </row>
     <row r="19">
